--- a/data_year/zb/农业/按人口平均的主要农产品产量.xlsx
+++ b/data_year/zb/农业/按人口平均的主要农产品产量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,625 +478,348 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.3020603574243</v>
+        <v>91.8375184672946</v>
       </c>
       <c r="C2" t="n">
-        <v>3.4984837385</v>
+        <v>4.3136492888</v>
       </c>
       <c r="D2" t="n">
-        <v>49.3024328294968</v>
+        <v>150.222726482561</v>
       </c>
       <c r="E2" t="n">
-        <v>23.4019017776176</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>23.5984311864</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.3852080152663</v>
+      </c>
       <c r="G2" t="n">
-        <v>366.0373264061</v>
+        <v>417.9644096795</v>
       </c>
       <c r="H2" t="n">
-        <v>60.4709201715447</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>84.4981169669221</v>
+      </c>
+      <c r="I2" t="n">
+        <v>428.08284321074</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.3492369383182</v>
+        <v>98.2184781598325</v>
       </c>
       <c r="C3" t="n">
-        <v>4.2</v>
+        <v>4.8466059293078</v>
       </c>
       <c r="D3" t="n">
-        <v>52.3489405197154</v>
+        <v>156.373331380355</v>
       </c>
       <c r="E3" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>23.8841936428048</v>
+      </c>
+      <c r="F3" t="n">
+        <v>58.1548532205222</v>
+      </c>
       <c r="G3" t="n">
-        <v>355.888430239415</v>
+        <v>437.530095501126</v>
       </c>
       <c r="H3" t="n">
-        <v>68.0514843810198</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>86.77068500988371</v>
+      </c>
+      <c r="I3" t="n">
+        <v>444.649171782071</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.2955326460481</v>
+        <v>105.106927695526</v>
       </c>
       <c r="C4" t="n">
-        <v>3.8395954076851</v>
+        <v>4.87968490794841</v>
       </c>
       <c r="D4" t="n">
-        <v>54.2953787878788</v>
+        <v>163.556575228968</v>
       </c>
       <c r="E4" t="n">
-        <v>22.6273424867229</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>24.2625872818005</v>
+      </c>
+      <c r="F4" t="n">
+        <v>58.4496475334418</v>
+      </c>
       <c r="G4" t="n">
-        <v>356.964620431115</v>
+        <v>452.097746539792</v>
       </c>
       <c r="H4" t="n">
-        <v>80.3864250624805</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>92.1881916563633</v>
+      </c>
+      <c r="I4" t="n">
+        <v>456.242634737087</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.6116244954983</v>
+        <v>108.113950496013</v>
       </c>
       <c r="C5" t="n">
-        <v>3.77189459795095</v>
+        <v>4.60782377142269</v>
       </c>
       <c r="D5" t="n">
-        <v>112.677829866501</v>
+        <v>167.588318724119</v>
       </c>
       <c r="E5" t="n">
-        <v>21.8177615647314</v>
+        <v>24.5591385229307</v>
       </c>
       <c r="F5" t="n">
-        <v>54.0662053710028</v>
+        <v>59.474368228106</v>
       </c>
       <c r="G5" t="n">
-        <v>334.286915243713</v>
+        <v>462.487927523984</v>
       </c>
       <c r="H5" t="n">
-        <v>74.8342587705681</v>
+        <v>92.49441091286231</v>
       </c>
       <c r="I5" t="n">
-        <v>419.375345389631</v>
+        <v>465.587970091573</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.76579981868331</v>
+        <v>111.204976986947</v>
       </c>
       <c r="C6" t="n">
-        <v>4.87896887140019</v>
+        <v>4.59189530426544</v>
       </c>
       <c r="D6" t="n">
-        <v>118.364153309029</v>
+        <v>170.806603155874</v>
       </c>
       <c r="E6" t="n">
-        <v>23.6553401616419</v>
+        <v>24.5792138351202</v>
       </c>
       <c r="F6" t="n">
-        <v>53.5983534903458</v>
+        <v>59.6016261689272</v>
       </c>
       <c r="G6" t="n">
-        <v>362.224017900199</v>
+        <v>466.263518450175</v>
       </c>
       <c r="H6" t="n">
-        <v>73.8433470285284</v>
+        <v>88.6095132132703</v>
       </c>
       <c r="I6" t="n">
-        <v>424.857052431379</v>
+        <v>476.068860440781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.7714658438929</v>
+        <v>118.149614183114</v>
       </c>
       <c r="C7" t="n">
-        <v>4.382979937</v>
+        <v>4.28115329317232</v>
       </c>
       <c r="D7" t="n">
-        <v>123.646909612493</v>
+        <v>178.852549649308</v>
       </c>
       <c r="E7" t="n">
-        <v>23.6027294051</v>
+        <v>24.5710918881439</v>
       </c>
       <c r="F7" t="n">
-        <v>55.8754437686006</v>
+        <v>60.7029354661936</v>
       </c>
       <c r="G7" t="n">
-        <v>371.2621609296</v>
+        <v>478.746206379236</v>
       </c>
       <c r="H7" t="n">
-        <v>72.4995382444083</v>
+        <v>81.7900710397432</v>
       </c>
       <c r="I7" t="n">
-        <v>433.003157426441</v>
+        <v>484.423358963457</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.2196137219992</v>
+        <v>117.526085078199</v>
       </c>
       <c r="C8" t="n">
-        <v>5.7457445366</v>
+        <v>3.84989328701526</v>
       </c>
       <c r="D8" t="n">
-        <v>130.447799591158</v>
+        <v>177.020823251275</v>
       </c>
       <c r="E8" t="n">
-        <v>20.1393931850457</v>
+        <v>24.4997373398873</v>
       </c>
       <c r="F8" t="n">
-        <v>57.2283638385384</v>
+        <v>59.494738173076</v>
       </c>
       <c r="G8" t="n">
-        <v>379.8891475488</v>
+        <v>475.889795961378</v>
       </c>
       <c r="H8" t="n">
-        <v>79.78497480302489</v>
+        <v>81.0641405109583</v>
       </c>
       <c r="I8" t="n">
-        <v>411.535503561522</v>
+        <v>489.126512295465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.7202165095143</v>
+        <v>122.254928653212</v>
       </c>
       <c r="C9" t="n">
-        <v>5.7646359468</v>
+        <v>4.04846302324499</v>
       </c>
       <c r="D9" t="n">
-        <v>133.997719990311</v>
+        <v>182.068573751461</v>
       </c>
       <c r="E9" t="n">
-        <v>21.1474543203</v>
+        <v>24.8904249913683</v>
       </c>
       <c r="F9" t="n">
-        <v>55.2775034807965</v>
+        <v>59.8136450982492</v>
       </c>
       <c r="G9" t="n">
-        <v>382.5360672077</v>
+        <v>473.85775159534</v>
       </c>
       <c r="H9" t="n">
-        <v>91.679872656217</v>
+        <v>82.0750238042973</v>
       </c>
       <c r="I9" t="n">
-        <v>436.592137833743</v>
+        <v>499.083458341743</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82.2769203532758</v>
+        <v>126.121165336393</v>
       </c>
       <c r="C10" t="n">
-        <v>5.4597955874</v>
+        <v>4.35054594513673</v>
       </c>
       <c r="D10" t="n">
-        <v>137.991377674368</v>
+        <v>184.446045913036</v>
       </c>
       <c r="E10" t="n">
-        <v>22.9249275596</v>
+        <v>24.4759558285095</v>
       </c>
       <c r="F10" t="n">
-        <v>54.4285222269909</v>
+        <v>58.324880576643</v>
       </c>
       <c r="G10" t="n">
-        <v>403.3826813475</v>
+        <v>468.99837449751</v>
       </c>
       <c r="H10" t="n">
-        <v>98.183781044612</v>
+        <v>85.7123072224763</v>
       </c>
       <c r="I10" t="n">
-        <v>442.901794218779</v>
+        <v>505.09947867263</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>87.24136402846661</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>4.6841620063</v>
+        <v>4.18330809919889</v>
       </c>
       <c r="D11" t="n">
-        <v>143.425847018798</v>
+        <v>196</v>
       </c>
       <c r="E11" t="n">
-        <v>23.582295983</v>
-      </c>
-      <c r="F11" t="n">
-        <v>56.1844829903311</v>
-      </c>
+        <v>24.8125927763906</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>405.1865162463</v>
+        <v>471.565121100594</v>
       </c>
       <c r="H11" t="n">
-        <v>88.2389440995737</v>
-      </c>
-      <c r="I11" t="n">
-        <v>444.236863668216</v>
-      </c>
+        <v>87.09999999999999</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>91.8375184672946</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>4.3136492888</v>
-      </c>
-      <c r="D12" t="n">
-        <v>150.222726482561</v>
-      </c>
+        <v>4.18857574726809</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>23.5984311864</v>
-      </c>
-      <c r="F12" t="n">
-        <v>58.3852080152663</v>
-      </c>
+        <v>25.4156581295443</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>417.9644096795</v>
-      </c>
-      <c r="H12" t="n">
-        <v>84.4981169669221</v>
-      </c>
-      <c r="I12" t="n">
-        <v>428.08284321074</v>
-      </c>
+        <v>474.446545469128</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>98.2184781598325</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>4.8466059293078</v>
-      </c>
-      <c r="D13" t="n">
-        <v>156.373331380355</v>
-      </c>
+        <v>4.05769975939893</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>23.8841936428048</v>
-      </c>
-      <c r="F13" t="n">
-        <v>58.1548532205222</v>
-      </c>
+        <v>25.5825309977626</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>437.530095501126</v>
-      </c>
-      <c r="H13" t="n">
-        <v>86.77068500988371</v>
-      </c>
-      <c r="I13" t="n">
-        <v>444.649171782071</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>105.106927695526</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.87968490794841</v>
-      </c>
-      <c r="D14" t="n">
-        <v>163.556575228968</v>
-      </c>
-      <c r="E14" t="n">
-        <v>24.2625872818005</v>
-      </c>
-      <c r="F14" t="n">
-        <v>58.4496475334418</v>
-      </c>
-      <c r="G14" t="n">
-        <v>452.097746539792</v>
-      </c>
-      <c r="H14" t="n">
-        <v>92.1881916563633</v>
-      </c>
-      <c r="I14" t="n">
-        <v>456.242634737087</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>108.113950496013</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.60782377142269</v>
-      </c>
-      <c r="D15" t="n">
-        <v>167.588318724119</v>
-      </c>
-      <c r="E15" t="n">
-        <v>24.5591385229307</v>
-      </c>
-      <c r="F15" t="n">
-        <v>59.474368228106</v>
-      </c>
-      <c r="G15" t="n">
-        <v>462.487927523984</v>
-      </c>
-      <c r="H15" t="n">
-        <v>92.49441091286231</v>
-      </c>
-      <c r="I15" t="n">
-        <v>465.587970091573</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>111.204976986947</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4.59189530426544</v>
-      </c>
-      <c r="D16" t="n">
-        <v>170.806603155874</v>
-      </c>
-      <c r="E16" t="n">
-        <v>24.5792138351202</v>
-      </c>
-      <c r="F16" t="n">
-        <v>59.6016261689272</v>
-      </c>
-      <c r="G16" t="n">
-        <v>466.263518450175</v>
-      </c>
-      <c r="H16" t="n">
-        <v>88.6095132132703</v>
-      </c>
-      <c r="I16" t="n">
-        <v>476.068860440781</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>118.149614183114</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.28115329317232</v>
-      </c>
-      <c r="D17" t="n">
-        <v>178.852549649308</v>
-      </c>
-      <c r="E17" t="n">
-        <v>24.5710918881439</v>
-      </c>
-      <c r="F17" t="n">
-        <v>60.7029354661936</v>
-      </c>
-      <c r="G17" t="n">
-        <v>478.746206379236</v>
-      </c>
-      <c r="H17" t="n">
-        <v>81.7900710397432</v>
-      </c>
-      <c r="I17" t="n">
-        <v>484.423358963457</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>117.526085078199</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.84989328701526</v>
-      </c>
-      <c r="D18" t="n">
-        <v>177.020823251275</v>
-      </c>
-      <c r="E18" t="n">
-        <v>24.4997373398873</v>
-      </c>
-      <c r="F18" t="n">
-        <v>59.494738173076</v>
-      </c>
-      <c r="G18" t="n">
-        <v>475.889795961378</v>
-      </c>
-      <c r="H18" t="n">
-        <v>81.0641405109583</v>
-      </c>
-      <c r="I18" t="n">
-        <v>489.126512295465</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>122.254928653212</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.04846302324499</v>
-      </c>
-      <c r="D19" t="n">
-        <v>182.068573751461</v>
-      </c>
-      <c r="E19" t="n">
-        <v>24.8904249913683</v>
-      </c>
-      <c r="F19" t="n">
-        <v>59.8136450982492</v>
-      </c>
-      <c r="G19" t="n">
-        <v>473.85775159534</v>
-      </c>
-      <c r="H19" t="n">
-        <v>82.0750238042973</v>
-      </c>
-      <c r="I19" t="n">
-        <v>499.083458341743</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>126.121165336393</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.35054594513673</v>
-      </c>
-      <c r="D20" t="n">
-        <v>184.446045913036</v>
-      </c>
-      <c r="E20" t="n">
-        <v>24.4759558285095</v>
-      </c>
-      <c r="F20" t="n">
-        <v>58.324880576643</v>
-      </c>
-      <c r="G20" t="n">
-        <v>468.99837449751</v>
-      </c>
-      <c r="H20" t="n">
-        <v>85.7123072224763</v>
-      </c>
-      <c r="I20" t="n">
-        <v>505.09947867263</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>4.18330809919889</v>
-      </c>
-      <c r="D21" t="n">
-        <v>196</v>
-      </c>
-      <c r="E21" t="n">
-        <v>24.8125927763906</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>471.565121100594</v>
-      </c>
-      <c r="H21" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>4.18857574726809</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>25.4156581295443</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>474.446545469128</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+        <v>483.479775925499</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
